--- a/rwc_strategie_a_confronto.xlsx
+++ b/rwc_strategie_a_confronto.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E9EC6E88-1F05-4180-85C9-8A4E49972D2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Added Edges</t>
   </si>
@@ -31,12 +37,135 @@
   </si>
   <si>
     <t>Optimum DeltaRwc - ratio</t>
+  </si>
+  <si>
+    <t>-0.0065462738648299455,</t>
+  </si>
+  <si>
+    <t>-0.0063406193457784072,</t>
+  </si>
+  <si>
+    <t>-0.0062538961143611075,</t>
+  </si>
+  <si>
+    <t>-0.0057808026106898943,</t>
+  </si>
+  <si>
+    <t>-0.0056461098195269236,</t>
+  </si>
+  <si>
+    <t>-0.0053152164060035843,</t>
+  </si>
+  <si>
+    <t>-0.0053086006503461156,</t>
+  </si>
+  <si>
+    <t>-0.0053050947549005811,</t>
+  </si>
+  <si>
+    <t>-0.0052978146310068887,</t>
+  </si>
+  <si>
+    <t>-0.0052689684108532912,</t>
+  </si>
+  <si>
+    <t>-0.005250579950</t>
+  </si>
+  <si>
+    <t>-0.0052505799502074518,-0.0048877264986670176,</t>
+  </si>
+  <si>
+    <t>-0.0048786779976561492,-0.0048759276406776172,</t>
+  </si>
+  <si>
+    <t>-0.0048648331077997299,</t>
+  </si>
+  <si>
+    <t>-0.004864626032364084,</t>
+  </si>
+  <si>
+    <t>-0.0047423175812001837,</t>
+  </si>
+  <si>
+    <t>-0.0046804856076614471,-0.004595432132044509,</t>
+  </si>
+  <si>
+    <t>-0.004422632069898411</t>
+  </si>
+  <si>
+    <t>-0.0065462738648299455</t>
+  </si>
+  <si>
+    <t>-0.0063406193457784072</t>
+  </si>
+  <si>
+    <t>-0.0062538961143611075</t>
+  </si>
+  <si>
+    <t>-0.0057808026106898943</t>
+  </si>
+  <si>
+    <t>-0.0056461098195269236</t>
+  </si>
+  <si>
+    <t>-0.0053152164060035843</t>
+  </si>
+  <si>
+    <t>-0.0053086006503461156</t>
+  </si>
+  <si>
+    <t>-0.0053050947549005811</t>
+  </si>
+  <si>
+    <t>-0.0052978146310068887</t>
+  </si>
+  <si>
+    <t>-0.0052689684108532912</t>
+  </si>
+  <si>
+    <t>-0.0052505799502074518-0.0048877264986670176</t>
+  </si>
+  <si>
+    <t>-0.0048786779976561492-0.0048759276406776172</t>
+  </si>
+  <si>
+    <t>-0.0048648331077997299</t>
+  </si>
+  <si>
+    <t>-0.004864626032364084</t>
+  </si>
+  <si>
+    <t>-0.0047423175812001837</t>
+  </si>
+  <si>
+    <t>-0.0046804856076614471-0.004595432132044509</t>
+  </si>
+  <si>
+    <t>-0.0052505799502074518</t>
+  </si>
+  <si>
+    <t>-0.0048877264986670176</t>
+  </si>
+  <si>
+    <t>-0.0048786779976561492</t>
+  </si>
+  <si>
+    <t>-0.0048759276406776172</t>
+  </si>
+  <si>
+    <t>-0.0046804856076614471</t>
+  </si>
+  <si>
+    <t>-0.004595432132044509</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -78,12 +208,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -117,7 +250,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -139,72 +271,77 @@
             <c:numRef>
               <c:f>Foglio1!$D$2:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>6.5462738648299403E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9199999999999999E-3</c:v>
+                  <c:v>6.3406193457784003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8415999999999997E-3</c:v>
+                  <c:v>6.2538961143610997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7647679999999995E-3</c:v>
+                  <c:v>5.78080261068989E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6894726399999992E-3</c:v>
+                  <c:v>5.6461098195269201E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6156831871999992E-3</c:v>
+                  <c:v>5.3152164060035799E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5433695234559992E-3</c:v>
+                  <c:v>5.3086006503461104E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.472502132986879E-3</c:v>
+                  <c:v>5.3050947549005802E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4030520903271413E-3</c:v>
+                  <c:v>5.2978146310068801E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3349910485205984E-3</c:v>
+                  <c:v>5.2689684108532904E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2682912275501862E-3</c:v>
+                  <c:v>5.2505799502074501E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2029254029991823E-3</c:v>
+                  <c:v>4.8877264986670098E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1388668949391988E-3</c:v>
+                  <c:v>4.8786779976561397E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0760895570404148E-3</c:v>
+                  <c:v>4.8759276406776103E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0145677658996064E-3</c:v>
+                  <c:v>4.8648331077997204E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9542764105816143E-3</c:v>
+                  <c:v>4.8646260323640797E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8951908823699819E-3</c:v>
+                  <c:v>4.7423175812001802E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8372870647225823E-3</c:v>
+                  <c:v>4.6804856076614401E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7805413234281307E-3</c:v>
+                  <c:v>4.5954321320445003E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7249304969595681E-3</c:v>
+                  <c:v>4.4226320698984101E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A95-45B5-9E7D-90412BB0367C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -222,69 +359,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>1.1014287605848499E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8999999999999998E-3</c:v>
+                  <c:v>8.2541652788074103E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8019999999999998E-3</c:v>
+                  <c:v>7.8246213370292399E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7059599999999995E-3</c:v>
+                  <c:v>7.5230619527313896E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6118407999999993E-3</c:v>
+                  <c:v>6.76676495317435E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5196039839999992E-3</c:v>
+                  <c:v>6.5462738648299403E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4292119043199988E-3</c:v>
+                  <c:v>6.2538961143610997E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3406276662335984E-3</c:v>
+                  <c:v>6.0737096477112397E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2538151129089263E-3</c:v>
+                  <c:v>5.9626219761961504E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1687388106507479E-3</c:v>
+                  <c:v>5.78080261068989E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0853640344377332E-3</c:v>
+                  <c:v>5.77557474354542E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0036567537489786E-3</c:v>
+                  <c:v>5.7437522207752596E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9235836186739988E-3</c:v>
+                  <c:v>5.5034194249644602E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8451119463005189E-3</c:v>
+                  <c:v>5.3152164060035799E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7682097073745086E-3</c:v>
+                  <c:v>5.3108557000336098E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6928455132270183E-3</c:v>
+                  <c:v>5.2980378564124004E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6189886029624778E-3</c:v>
+                  <c:v>5.2934512960894197E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5466088309032283E-3</c:v>
+                  <c:v>5.2689684108532904E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4756766542851638E-3</c:v>
+                  <c:v>5.2505799502074501E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4061631211994604E-3</c:v>
+                  <c:v>5.2458414197140302E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A95-45B5-9E7D-90412BB0367C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -302,69 +444,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>6.5849104696341799E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8799999999999998E-3</c:v>
+                  <c:v>6.5301289825012501E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7635999999999998E-3</c:v>
+                  <c:v>6.06281321493333E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6506919999999997E-3</c:v>
+                  <c:v>6.0287358832039201E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5411712399999996E-3</c:v>
+                  <c:v>5.9762718903842004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4349361027999994E-3</c:v>
+                  <c:v>5.9693907491518003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3318880197159995E-3</c:v>
+                  <c:v>5.9626219761961504E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2319313791245195E-3</c:v>
+                  <c:v>5.9205238756442997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1349734377507836E-3</c:v>
+                  <c:v>5.8973282555971097E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0409242346182601E-3</c:v>
+                  <c:v>5.8869777003282397E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9496965075797121E-3</c:v>
+                  <c:v>5.8118401303317796E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8612056123523207E-3</c:v>
+                  <c:v>5.7925520586765301E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7753694439817509E-3</c:v>
+                  <c:v>5.7630671193243102E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6921083606622981E-3</c:v>
+                  <c:v>5.7163892945704996E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6113451098424291E-3</c:v>
+                  <c:v>5.4353527294202604E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5330047565471562E-3</c:v>
+                  <c:v>5.0897816829765501E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4570146138507415E-3</c:v>
+                  <c:v>5.0688110950981502E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.383304175435219E-3</c:v>
+                  <c:v>4.9894440102612701E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3118050501721625E-3</c:v>
+                  <c:v>4.5415463074030497E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2424508986669976E-3</c:v>
+                  <c:v>4.5306689904938604E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A95-45B5-9E7D-90412BB0367C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -374,7 +521,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="232309120"/>
         <c:axId val="232310656"/>
@@ -404,7 +550,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -415,7 +561,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -431,7 +576,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -464,7 +609,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -489,69 +633,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0509999999999999</c:v>
+                  <c:v>1.0484537261351701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04708</c:v>
+                  <c:v>1.0421131067893916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0432384000000001</c:v>
+                  <c:v>1.0358592106750306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0394736320000002</c:v>
+                  <c:v>1.0300784080643408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0357841593600001</c:v>
+                  <c:v>1.024432298244814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0321684761728001</c:v>
+                  <c:v>1.0191170818388104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0286251066493441</c:v>
+                  <c:v>1.0138084811884642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0251526045163573</c:v>
+                  <c:v>1.0085033864335637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02174955242603</c:v>
+                  <c:v>1.0032055718025568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0184145613775095</c:v>
+                  <c:v>0.99793660339170343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0151462701499594</c:v>
+                  <c:v>0.99268602344149592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0119433447469601</c:v>
+                  <c:v>0.98779829694282895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0088044778520209</c:v>
+                  <c:v>0.98291961894517277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0057283882949806</c:v>
+                  <c:v>0.9780436913044952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0027138205290809</c:v>
+                  <c:v>0.97317885819669547</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99975954411849921</c:v>
+                  <c:v>0.96831423216433143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99686435323612921</c:v>
+                  <c:v>0.96357191458313129</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99402706617140657</c:v>
+                  <c:v>0.95889142897546986</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99124652484797848</c:v>
+                  <c:v>0.95429599684342536</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98852159435101894</c:v>
+                  <c:v>0.94987336477352691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E52-4E61-9932-AB03DB7922CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -569,69 +718,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>1.0439857123941514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0451000000000001</c:v>
+                  <c:v>1.0357315471153439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0402980000000002</c:v>
+                  <c:v>1.0279069257783147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0355920400000003</c:v>
+                  <c:v>1.0203838638255833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0309801992000003</c:v>
+                  <c:v>1.0136170988724089</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0264605952160002</c:v>
+                  <c:v>1.0070708250075791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0220313833116801</c:v>
+                  <c:v>1.000816928893218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0176907556454464</c:v>
+                  <c:v>0.99474321924550679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0134369405325374</c:v>
+                  <c:v>0.98878059726931067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0092682017218866</c:v>
+                  <c:v>0.98299979465862075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0051828376874488</c:v>
+                  <c:v>0.97722421991507535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0011791809336998</c:v>
+                  <c:v>0.97148046769430008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99725559731502589</c:v>
+                  <c:v>0.96597704826933561</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99341048536872534</c:v>
+                  <c:v>0.96066183186333198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98964227566135088</c:v>
+                  <c:v>0.95535097616329834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98594943014812386</c:v>
+                  <c:v>0.95005293830688597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98233044154516136</c:v>
+                  <c:v>0.94475948701079659</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97878383271425817</c:v>
+                  <c:v>0.93949051859994326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97530815605997301</c:v>
+                  <c:v>0.93423993864973576</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97190199293877355</c:v>
+                  <c:v>0.92899409723002169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E52-4E61-9932-AB03DB7922CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -649,69 +803,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0509999999999999</c:v>
+                  <c:v>1.0484150895303657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0471199999999998</c:v>
+                  <c:v>1.0418849605478644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0433563999999997</c:v>
+                  <c:v>1.035822147332931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0397057079999998</c:v>
+                  <c:v>1.0297934114497271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0361645367599999</c:v>
+                  <c:v>1.0238171395593429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0327296006571998</c:v>
+                  <c:v>1.0178477488101911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0293977126374838</c:v>
+                  <c:v>1.011885126833995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0261657812583593</c:v>
+                  <c:v>1.0059646029583507</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0230308078206085</c:v>
+                  <c:v>1.0000672747027535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0199898835859902</c:v>
+                  <c:v>0.99418029700242527</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0170401870784105</c:v>
+                  <c:v>0.98836845687209351</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0141789814660582</c:v>
+                  <c:v>0.98257590481341694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0114036120220764</c:v>
+                  <c:v>0.97681283769409266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.008711503661414</c:v>
+                  <c:v>0.97109644839952214</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0061001585515716</c:v>
+                  <c:v>0.96566109567010183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0035671537950246</c:v>
+                  <c:v>0.96057131398712525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0011101391811739</c:v>
+                  <c:v>0.95550250289202709</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99872683500573867</c:v>
+                  <c:v>0.95051305888176585</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99641502995556652</c:v>
+                  <c:v>0.94597151257436285</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99417257905689949</c:v>
+                  <c:v>0.94144084358386904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E52-4E61-9932-AB03DB7922CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -721,7 +880,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="237096320"/>
         <c:axId val="237143168"/>
@@ -762,7 +920,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -794,7 +951,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -824,7 +987,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4"/>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -885,7 +1054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -918,9 +1087,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,6 +1139,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1128,11 +1331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,17 +1372,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <f>0.004</f>
-        <v>4.0000000000000001E-3</v>
+      <c r="D2" s="1">
+        <v>6.5462738648299403E-3</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> 0.005</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.1014287605848499E-2</v>
       </c>
       <c r="F2">
-        <f>0.004</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.5849104696341799E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1187,17 +1387,14 @@
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D3">
-        <f xml:space="preserve"> D2 * 0.98</f>
-        <v>3.9199999999999999E-3</v>
+      <c r="D3" s="1">
+        <v>6.3406193457784003E-3</v>
       </c>
       <c r="E3">
-        <f>E2*0.98</f>
-        <v>4.8999999999999998E-3</v>
+        <v>8.2541652788074103E-3</v>
       </c>
       <c r="F3">
-        <f>F2*0.97</f>
-        <v>3.8799999999999998E-3</v>
+        <v>6.5301289825012501E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,17 +1402,14 @@
         <f t="shared" ref="C4:C21" si="0">C3+1</f>
         <v>3</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D21" si="1" xml:space="preserve"> D3 * 0.98</f>
-        <v>3.8415999999999997E-3</v>
+      <c r="D4" s="1">
+        <v>6.2538961143610997E-3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E21" si="2">E3*0.98</f>
-        <v>4.8019999999999998E-3</v>
+        <v>7.8246213370292399E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F21" si="3">F3*0.97</f>
-        <v>3.7635999999999998E-3</v>
+        <v>6.06281321493333E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,17 +1417,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>3.7647679999999995E-3</v>
+      <c r="D5" s="1">
+        <v>5.78080261068989E-3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>4.7059599999999995E-3</v>
+        <v>7.5230619527313896E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
-        <v>3.6506919999999997E-3</v>
+        <v>6.0287358832039201E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,17 +1432,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>3.6894726399999992E-3</v>
+      <c r="D6" s="1">
+        <v>5.6461098195269201E-3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>4.6118407999999993E-3</v>
+        <v>6.76676495317435E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
-        <v>3.5411712399999996E-3</v>
+        <v>5.9762718903842004E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,17 +1447,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>3.6156831871999992E-3</v>
+      <c r="D7" s="1">
+        <v>5.3152164060035799E-3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>4.5196039839999992E-3</v>
+        <v>6.5462738648299403E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
-        <v>3.4349361027999994E-3</v>
+        <v>5.9693907491518003E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,17 +1462,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>3.5433695234559992E-3</v>
+      <c r="D8" s="1">
+        <v>5.3086006503461104E-3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>4.4292119043199988E-3</v>
+        <v>6.2538961143610997E-3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
-        <v>3.3318880197159995E-3</v>
+        <v>5.9626219761961504E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,17 +1477,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3.472502132986879E-3</v>
+      <c r="D9" s="1">
+        <v>5.3050947549005802E-3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>4.3406276662335984E-3</v>
+        <v>6.0737096477112397E-3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
-        <v>3.2319313791245195E-3</v>
+        <v>5.9205238756442997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,17 +1492,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>3.4030520903271413E-3</v>
+      <c r="D10" s="1">
+        <v>5.2978146310068801E-3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>4.2538151129089263E-3</v>
+        <v>5.9626219761961504E-3</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>3.1349734377507836E-3</v>
+        <v>5.8973282555971097E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,17 +1507,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>3.3349910485205984E-3</v>
+      <c r="D11" s="1">
+        <v>5.2689684108532904E-3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>4.1687388106507479E-3</v>
+        <v>5.78080261068989E-3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>3.0409242346182601E-3</v>
+        <v>5.8869777003282397E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,17 +1522,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>3.2682912275501862E-3</v>
+      <c r="D12" s="1">
+        <v>5.2505799502074501E-3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>4.0853640344377332E-3</v>
+        <v>5.77557474354542E-3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>2.9496965075797121E-3</v>
+        <v>5.8118401303317796E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,17 +1537,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>3.2029254029991823E-3</v>
+      <c r="D13" s="1">
+        <v>4.8877264986670098E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>4.0036567537489786E-3</v>
+        <v>5.7437522207752596E-3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>2.8612056123523207E-3</v>
+        <v>5.7925520586765301E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,17 +1552,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>3.1388668949391988E-3</v>
+      <c r="D14" s="1">
+        <v>4.8786779976561397E-3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>3.9235836186739988E-3</v>
+        <v>5.5034194249644602E-3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>2.7753694439817509E-3</v>
+        <v>5.7630671193243102E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,17 +1567,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>3.0760895570404148E-3</v>
+      <c r="D15" s="1">
+        <v>4.8759276406776103E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>3.8451119463005189E-3</v>
+        <v>5.3152164060035799E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
-        <v>2.6921083606622981E-3</v>
+        <v>5.7163892945704996E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,17 +1582,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>3.0145677658996064E-3</v>
+      <c r="D16" s="1">
+        <v>4.8648331077997204E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>3.7682097073745086E-3</v>
+        <v>5.3108557000336098E-3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>2.6113451098424291E-3</v>
+        <v>5.4353527294202604E-3</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -1439,17 +1597,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>2.9542764105816143E-3</v>
+      <c r="D17" s="1">
+        <v>4.8646260323640797E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>3.6928455132270183E-3</v>
+        <v>5.2980378564124004E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>2.5330047565471562E-3</v>
+        <v>5.0897816829765501E-3</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -1457,17 +1612,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>2.8951908823699819E-3</v>
+      <c r="D18" s="1">
+        <v>4.7423175812001802E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>3.6189886029624778E-3</v>
+        <v>5.2934512960894197E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>2.4570146138507415E-3</v>
+        <v>5.0688110950981502E-3</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -1475,17 +1627,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>2.8372870647225823E-3</v>
+      <c r="D19" s="1">
+        <v>4.6804856076614401E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>3.5466088309032283E-3</v>
+        <v>5.2689684108532904E-3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
-        <v>2.383304175435219E-3</v>
+        <v>4.9894440102612701E-3</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -1493,17 +1642,14 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>2.7805413234281307E-3</v>
+      <c r="D20" s="1">
+        <v>4.5954321320445003E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>3.4756766542851638E-3</v>
+        <v>5.2505799502074501E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>2.3118050501721625E-3</v>
+        <v>4.5415463074030497E-3</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
@@ -1511,17 +1657,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>2.7249304969595681E-3</v>
+      <c r="D21" s="1">
+        <v>4.4226320698984101E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>3.4061631211994604E-3</v>
+        <v>5.2458414197140302E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
-        <v>2.2424508986669976E-3</v>
+        <v>4.5306689904938604E-3</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
@@ -1530,15 +1673,15 @@
       </c>
       <c r="D23">
         <f>$A$2 - D2</f>
-        <v>1.0509999999999999</v>
+        <v>1.0484537261351701</v>
       </c>
       <c r="E23">
         <f>$A$2 - E2</f>
-        <v>1.05</v>
+        <v>1.0439857123941514</v>
       </c>
       <c r="F23">
         <f>$A$2 - F2</f>
-        <v>1.0509999999999999</v>
+        <v>1.0484150895303657</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -1548,231 +1691,231 @@
       </c>
       <c r="D24">
         <f>D23 - D3</f>
-        <v>1.04708</v>
+        <v>1.0421131067893916</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:F39" si="4">E23 - E3</f>
-        <v>1.0451000000000001</v>
+        <f t="shared" ref="E24:F39" si="1">E23 - E3</f>
+        <v>1.0357315471153439</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
-        <v>1.0471199999999998</v>
+        <f t="shared" si="1"/>
+        <v>1.0418849605478644</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f t="shared" ref="C25:C42" si="5">C24+1</f>
+        <f t="shared" ref="C25:C42" si="2">C24+1</f>
         <v>3</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:F42" si="6">D24 - D4</f>
-        <v>1.0432384000000001</v>
+        <f t="shared" ref="D25:F42" si="3">D24 - D4</f>
+        <v>1.0358592106750306</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
-        <v>1.0402980000000002</v>
+        <f t="shared" si="1"/>
+        <v>1.0279069257783147</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
-        <v>1.0433563999999997</v>
+        <f t="shared" si="1"/>
+        <v>1.035822147332931</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D26">
-        <f t="shared" si="6"/>
-        <v>1.0394736320000002</v>
+        <f t="shared" si="3"/>
+        <v>1.0300784080643408</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>1.0355920400000003</v>
+        <f t="shared" si="1"/>
+        <v>1.0203838638255833</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
-        <v>1.0397057079999998</v>
+        <f t="shared" si="1"/>
+        <v>1.0297934114497271</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="6"/>
-        <v>1.0357841593600001</v>
+        <f t="shared" si="3"/>
+        <v>1.024432298244814</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>1.0309801992000003</v>
+        <f t="shared" si="1"/>
+        <v>1.0136170988724089</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
-        <v>1.0361645367599999</v>
+        <f t="shared" si="1"/>
+        <v>1.0238171395593429</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
-        <v>1.0321684761728001</v>
+        <f t="shared" si="3"/>
+        <v>1.0191170818388104</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
-        <v>1.0264605952160002</v>
+        <f t="shared" si="1"/>
+        <v>1.0070708250075791</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
-        <v>1.0327296006571998</v>
+        <f t="shared" si="1"/>
+        <v>1.0178477488101911</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
-        <v>1.0286251066493441</v>
+        <f t="shared" si="3"/>
+        <v>1.0138084811884642</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>1.0220313833116801</v>
+        <f t="shared" si="1"/>
+        <v>1.000816928893218</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
-        <v>1.0293977126374838</v>
+        <f t="shared" si="1"/>
+        <v>1.011885126833995</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="6"/>
-        <v>1.0251526045163573</v>
+        <f t="shared" si="3"/>
+        <v>1.0085033864335637</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
-        <v>1.0176907556454464</v>
+        <f t="shared" si="1"/>
+        <v>0.99474321924550679</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
-        <v>1.0261657812583593</v>
+        <f t="shared" si="1"/>
+        <v>1.0059646029583507</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D31">
-        <f t="shared" si="6"/>
-        <v>1.02174955242603</v>
+        <f t="shared" si="3"/>
+        <v>1.0032055718025568</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
-        <v>1.0134369405325374</v>
+        <f t="shared" si="1"/>
+        <v>0.98878059726931067</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
-        <v>1.0230308078206085</v>
+        <f t="shared" si="1"/>
+        <v>1.0000672747027535</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
-        <v>1.0184145613775095</v>
+        <f t="shared" si="3"/>
+        <v>0.99793660339170343</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
-        <v>1.0092682017218866</v>
+        <f t="shared" si="1"/>
+        <v>0.98299979465862075</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
-        <v>1.0199898835859902</v>
+        <f t="shared" si="1"/>
+        <v>0.99418029700242527</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
-        <v>1.0151462701499594</v>
+        <f t="shared" si="3"/>
+        <v>0.99268602344149592</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
-        <v>1.0051828376874488</v>
+        <f t="shared" si="1"/>
+        <v>0.97722421991507535</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
-        <v>1.0170401870784105</v>
+        <f t="shared" si="1"/>
+        <v>0.98836845687209351</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
-        <v>1.0119433447469601</v>
+        <f t="shared" si="3"/>
+        <v>0.98779829694282895</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
-        <v>1.0011791809336998</v>
+        <f t="shared" si="1"/>
+        <v>0.97148046769430008</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
-        <v>1.0141789814660582</v>
+        <f t="shared" si="1"/>
+        <v>0.98257590481341694</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D35">
-        <f t="shared" si="6"/>
-        <v>1.0088044778520209</v>
+        <f t="shared" si="3"/>
+        <v>0.98291961894517277</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
-        <v>0.99725559731502589</v>
+        <f t="shared" si="1"/>
+        <v>0.96597704826933561</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
-        <v>1.0114036120220764</v>
+        <f t="shared" si="1"/>
+        <v>0.97681283769409266</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D36">
-        <f t="shared" si="6"/>
-        <v>1.0057283882949806</v>
+        <f t="shared" si="3"/>
+        <v>0.9780436913044952</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>0.99341048536872534</v>
+        <f t="shared" si="1"/>
+        <v>0.96066183186333198</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
-        <v>1.008711503661414</v>
+        <f t="shared" si="1"/>
+        <v>0.97109644839952214</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
@@ -1781,128 +1924,493 @@
         <v>15</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
-        <v>1.0027138205290809</v>
+        <f t="shared" si="3"/>
+        <v>0.97317885819669547</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
-        <v>0.98964227566135088</v>
+        <f t="shared" si="1"/>
+        <v>0.95535097616329834</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
-        <v>1.0061001585515716</v>
+        <f t="shared" si="1"/>
+        <v>0.96566109567010183</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D38">
-        <f t="shared" si="6"/>
-        <v>0.99975954411849921</v>
+        <f t="shared" si="3"/>
+        <v>0.96831423216433143</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
-        <v>0.98594943014812386</v>
+        <f t="shared" si="1"/>
+        <v>0.95005293830688597</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
-        <v>1.0035671537950246</v>
+        <f t="shared" si="1"/>
+        <v>0.96057131398712525</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D39">
-        <f t="shared" si="6"/>
-        <v>0.99686435323612921</v>
+        <f t="shared" si="3"/>
+        <v>0.96357191458313129</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
-        <v>0.98233044154516136</v>
+        <f t="shared" si="1"/>
+        <v>0.94475948701079659</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
-        <v>1.0011101391811739</v>
+        <f t="shared" si="1"/>
+        <v>0.95550250289202709</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D40">
-        <f t="shared" si="6"/>
-        <v>0.99402706617140657</v>
+        <f t="shared" si="3"/>
+        <v>0.95889142897546986</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
-        <v>0.97878383271425817</v>
+        <f t="shared" si="3"/>
+        <v>0.93949051859994326</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
-        <v>0.99872683500573867</v>
+        <f t="shared" si="3"/>
+        <v>0.95051305888176585</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D41">
-        <f t="shared" si="6"/>
-        <v>0.99124652484797848</v>
+        <f t="shared" si="3"/>
+        <v>0.95429599684342536</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
-        <v>0.97530815605997301</v>
+        <f t="shared" si="3"/>
+        <v>0.93423993864973576</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
-        <v>0.99641502995556652</v>
+        <f t="shared" si="3"/>
+        <v>0.94597151257436285</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D42">
-        <f t="shared" si="6"/>
-        <v>0.98852159435101894</v>
+        <f t="shared" si="3"/>
+        <v>0.94987336477352691</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
-        <v>0.97190199293877355</v>
+        <f t="shared" si="3"/>
+        <v>0.92899409723002169</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
-        <v>0.99417257905689949</v>
+        <f t="shared" si="3"/>
+        <v>0.94144084358386904</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>1.1014287605848499E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.5849104696341799E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>8.2541652788074103E-3</v>
+      </c>
+      <c r="H7">
+        <v>6.5301289825012501E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>7.8246213370292399E-3</v>
+      </c>
+      <c r="H8">
+        <v>6.06281321493333E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>7.5230619527313896E-3</v>
+      </c>
+      <c r="H9">
+        <v>6.0287358832039201E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>6.76676495317435E-3</v>
+      </c>
+      <c r="H10">
+        <v>5.9762718903842004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>6.5462738648299403E-3</v>
+      </c>
+      <c r="H11">
+        <v>5.9693907491518003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>6.2538961143610997E-3</v>
+      </c>
+      <c r="H12">
+        <v>5.9626219761961504E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>6.0737096477112397E-3</v>
+      </c>
+      <c r="H13">
+        <v>5.9205238756442997E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>5.9626219761961504E-3</v>
+      </c>
+      <c r="H14">
+        <v>5.8973282555971097E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>5.78080261068989E-3</v>
+      </c>
+      <c r="H15">
+        <v>5.8869777003282397E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>5.77557474354542E-3</v>
+      </c>
+      <c r="H16">
+        <v>5.8118401303317796E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>5.7437522207752596E-3</v>
+      </c>
+      <c r="H17">
+        <v>5.7925520586765301E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>5.5034194249644602E-3</v>
+      </c>
+      <c r="H18">
+        <v>5.7630671193243102E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>5.3152164060035799E-3</v>
+      </c>
+      <c r="H19">
+        <v>5.7163892945704996E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>5.3108557000336098E-3</v>
+      </c>
+      <c r="H20">
+        <v>5.4353527294202604E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>5.2980378564124004E-3</v>
+      </c>
+      <c r="H21">
+        <v>5.0897816829765501E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>5.2934512960894197E-3</v>
+      </c>
+      <c r="H22">
+        <v>5.0688110950981502E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>5.2689684108532904E-3</v>
+      </c>
+      <c r="H23">
+        <v>4.9894440102612701E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <v>5.2505799502074501E-3</v>
+      </c>
+      <c r="H24">
+        <v>4.5415463074030497E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>5.2458414197140302E-3</v>
+      </c>
+      <c r="H25">
+        <v>4.5306689904938604E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
